--- a/data/case1/9/P2_6.xlsx
+++ b/data/case1/9/P2_6.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.4001054349591584</v>
+        <v>0.35038893185310371</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.05607648225070605</v>
+        <v>-0.042494950880548998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999999027927657</v>
+        <v>-0.0089999998425920325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06199893951372637</v>
+        <v>0.061998139567201349</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999999041950858</v>
+        <v>-0.0059999998453923453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999999002222637</v>
+        <v>-0.0059999998395205978</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999879722452</v>
+        <v>-0.019999999805820678</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0041451369189360321</v>
+        <v>0.019459576083664665</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999998967352752</v>
+        <v>-0.0059999998345290351</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999998949464839</v>
+        <v>-0.0059999998316868641</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999998968933141</v>
+        <v>-0.004499999834866486</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999998943536248</v>
+        <v>-0.0059999998305428903</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999998924649134</v>
+        <v>-0.005999999827574598</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999883272494</v>
+        <v>-0.01199999981242339</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00599999989145239</v>
+        <v>-0.0059999998259359089</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.00599999989102451</v>
+        <v>-0.0059999998252684428</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999998904665119</v>
+        <v>-0.0059999998243993602</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999998860124109</v>
+        <v>-0.0089999998170604556</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999999052654545</v>
+        <v>-0.0089999998463388131</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999999020857757</v>
+        <v>-0.0089999998422474192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.072541264677471684</v>
+        <v>-0.05425762947912105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999999011967091</v>
+        <v>-0.0089999998411296467</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999999018628429</v>
+        <v>-0.0089999998410439375</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999852735392</v>
+        <v>-0.041999999760084172</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999851903169</v>
+        <v>-0.041999999758715489</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999998997071202</v>
+        <v>-0.0059999998387958442</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999998991546732</v>
+        <v>-0.0059999998378046371</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999998967823487</v>
+        <v>-0.0059999998340067862</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999886509016</v>
+        <v>-0.01199999981711386</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999874190877</v>
+        <v>-0.01999999979681899</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999880162207</v>
+        <v>-0.014999999806802222</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.02099999987133927</v>
+        <v>-0.020999999792231883</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999998928201848</v>
+        <v>-0.0059999998276758504</v>
       </c>
     </row>
   </sheetData>
